--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1F3EA-FFFF-4EEE-B4FD-168E52026C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B7E908-9119-41C9-AFF6-0B3069E2FE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>18000</t>
+  </si>
+  <si>
+    <t>túi</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>19000</t>
   </si>
 </sst>
 </file>
@@ -168,8 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -191,17 +199,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,314 +491,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="29.7109375" customWidth="1" style="2"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="8.85546875" customWidth="1" style="4"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1" style="5"/>
+    <col min="1" max="1" bestFit="1" width="29.7109375" customWidth="1" style="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" style="2"/>
+    <col min="3" max="3" bestFit="1" width="8.85546875" customWidth="1" style="3"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>120000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <f>C3*D3</f>
         <v>360000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>100000</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f ref="E4:E17" t="shared" si="0">C4*D4</f>
         <v>200000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>60000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>29000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>348000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>31000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>186000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>48000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>192000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>155000</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>155000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>21000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>118000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>118000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>97000</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>97000</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>90000</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>102000</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>51</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>44000</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>2244000</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>36000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B7E908-9119-41C9-AFF6-0B3069E2FE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EEF1E3-577F-4306-9DB6-F3494754BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -117,23 +117,13 @@
   </si>
   <si>
     <t>18000</t>
-  </si>
-  <si>
-    <t>túi</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,38 +167,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,336 +480,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="29.7109375" customWidth="1" style="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" style="2"/>
-    <col min="3" max="3" bestFit="1" width="8.85546875" customWidth="1" style="3"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1" style="4"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>120000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f>C3*D3</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>100000</v>
       </c>
-      <c r="E4" s="10">
-        <f ref="E4:E17" t="shared" si="0">C4*D4</f>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E17" si="0">C4*D4</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>60000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>29000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>348000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>31000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>186000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>48000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>192000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>155000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>155000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>21000</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>118000</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>118000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>97000</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>97000</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>90000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>102000</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>51</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>44000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>2244000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EEF1E3-577F-4306-9DB6-F3494754BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78342EDE-2E29-4D86-AEFB-F2BD63072622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -56,74 +56,78 @@
     <t>Thành tiền</t>
   </si>
   <si>
+    <t>Cà Phê B</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Sữa đặc ngôi sao</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>Kem béo Ice Hot</t>
+  </si>
+  <si>
+    <t>Sữa tươi Vinamilk không đường</t>
+  </si>
+  <si>
+    <t>Ca cao Malaysia</t>
+  </si>
+  <si>
+    <t>bịch</t>
+  </si>
+  <si>
+    <t>Mứt việt quất</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>Mứt xoài</t>
+  </si>
+  <si>
+    <t>Mứt chanh leo</t>
+  </si>
+  <si>
+    <t>Mứt dâu</t>
+  </si>
+  <si>
+    <t>Mứt kiwi</t>
+  </si>
+  <si>
+    <t>Sữa chua Vinamilk không đường</t>
+  </si>
+  <si>
+    <t>lốc</t>
+  </si>
+  <si>
+    <t>Trà Lài</t>
+  </si>
+  <si>
+    <t>Ly + nắp nhựa</t>
+  </si>
+  <si>
+    <t>Ống hút</t>
+  </si>
+  <si>
     <t>Cà phê A</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Cà phê B</t>
-  </si>
-  <si>
-    <t>Sữa đặc ngôi sao</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>Kem béo Ice Hot</t>
-  </si>
-  <si>
-    <t>Sữa tươi Vinamilk không đường</t>
-  </si>
-  <si>
-    <t>Ca cao Malaysia</t>
-  </si>
-  <si>
-    <t>bịch</t>
-  </si>
-  <si>
-    <t>Sốt chocolate Hershey</t>
-  </si>
-  <si>
-    <t>chai</t>
-  </si>
-  <si>
-    <t>Sữa chua Vinamilk không đường</t>
-  </si>
-  <si>
-    <t>lốc</t>
-  </si>
-  <si>
-    <t>Mứt việt quất</t>
-  </si>
-  <si>
-    <t>Mứt xoài</t>
-  </si>
-  <si>
-    <t>Mứt chanh leo</t>
-  </si>
-  <si>
-    <t>Mứt dâu</t>
-  </si>
-  <si>
-    <t>Mứt Kiwi</t>
-  </si>
-  <si>
-    <t>Ly + nắp nhựa</t>
-  </si>
-  <si>
-    <t>Ống hút</t>
-  </si>
-  <si>
-    <t>18000</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>120000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,38 +171,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,27 +490,29 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="30" customWidth="1" style="2"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="8.85546875" customWidth="1" style="4"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" style="8"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" style="6"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -513,288 +522,274 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C4*D4</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="11">
+        <f>C5*D5</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11">
+        <v>29000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>32000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
-        <v>120000</v>
-      </c>
-      <c r="E3" s="9">
-        <f>C3*D3</f>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4:E17" si="0">C4*D4</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <v>29000</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>348000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8">
-        <v>31000</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>186000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="11">
+        <v>48000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>48000</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>119000</v>
+      </c>
+      <c r="E8" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
-        <v>155000</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="11">
+        <v>102000</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>99000</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
-        <v>118000</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>118000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
+      <c r="D11" s="11">
+        <v>97000</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
-        <v>97000</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="11">
+        <v>109000</v>
+      </c>
+      <c r="E12" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>97000</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11">
+        <v>21000</v>
+      </c>
+      <c r="E13" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
-        <v>90000</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="11">
+        <v>255000</v>
+      </c>
+      <c r="E14" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>102000</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="11">
+        <v>48000</v>
+      </c>
+      <c r="E15" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8">
-        <v>44000</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>2244000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>18000</v>
+      </c>
+      <c r="E16" s="11">
+        <f>C6*D6</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>36000</v>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6">
+        <f>C17*D17</f>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Mứt xoài</t>
   </si>
   <si>
-    <t>Mứt chanh leo</t>
-  </si>
-  <si>
-    <t>Mứt dâu</t>
-  </si>
-  <si>
     <t>Mứt kiwi</t>
   </si>
   <si>
@@ -104,19 +98,10 @@
     <t>lốc</t>
   </si>
   <si>
-    <t>Trà Lài</t>
-  </si>
-  <si>
-    <t>Ly + nắp nhựa</t>
-  </si>
-  <si>
-    <t>Ống hút</t>
-  </si>
-  <si>
     <t>Cà phê A</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>120000</t>
@@ -171,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -203,7 +188,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -487,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -649,19 +633,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
-        <v>99000</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="8">
+        <v>109000</v>
+      </c>
+      <c r="E10" s="6">
         <f>C6*D6</f>
       </c>
     </row>
@@ -670,118 +654,33 @@
         <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11">
-        <v>97000</v>
+        <v>21000</v>
       </c>
       <c r="E11" s="11">
         <f>C6*D6</f>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>109000</v>
-      </c>
-      <c r="E12" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11">
-        <v>21000</v>
-      </c>
-      <c r="E13" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>255000</v>
-      </c>
-      <c r="E14" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>50</v>
-      </c>
-      <c r="D15" s="11">
-        <v>48000</v>
-      </c>
-      <c r="E15" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>18000</v>
-      </c>
-      <c r="E16" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6">
-        <f>C17*D17</f>
+      <c r="E12" s="6">
+        <f>C12*D12</f>
       </c>
     </row>
   </sheetData>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78342EDE-2E29-4D86-AEFB-F2BD63072622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA1BCB-FAD1-40AE-B080-E1D30FA5369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -56,13 +57,22 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Cà Phê B</t>
+    <t>Cà phê A</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>Sữa đặc ngôi sao</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>Cà phê B</t>
+  </si>
+  <si>
+    <t>Sữa đặc Ngôi Sao</t>
   </si>
   <si>
     <t>hộp</t>
@@ -89,22 +99,22 @@
     <t>Mứt xoài</t>
   </si>
   <si>
-    <t>Mứt kiwi</t>
-  </si>
-  <si>
-    <t>Sữa chua Vinamilk không đường</t>
+    <t>Mứt dâu</t>
+  </si>
+  <si>
+    <t>Mứt chanh leo</t>
+  </si>
+  <si>
+    <t>Mứt Kiwi</t>
+  </si>
+  <si>
+    <t>Ly nhựa 360ml</t>
   </si>
   <si>
     <t>lốc</t>
   </si>
   <si>
-    <t>Cà phê A</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>120000</t>
+    <t>Nắp nhựa uống liền</t>
   </si>
 </sst>
 </file>
@@ -156,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -180,16 +190,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,30 +471,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="30" customWidth="1" style="2"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="8.85546875" customWidth="1" style="4"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" style="8"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" style="6"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" style="2"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1" style="3"/>
+    <col min="3" max="3" bestFit="1" width="8.81640625" customWidth="1" style="4"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1" style="8"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1" style="6"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -520,167 +520,231 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>100000</v>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="6">
+        <f>C3*D3</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
         <f>C4*D4</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="6">
         <v>60000</v>
       </c>
-      <c r="E4" s="11">
-        <f>C5*D5</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="E5" s="6">
+        <f ref="E5:E15" t="shared" si="0">C5*D5</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
         <v>29000</v>
       </c>
-      <c r="E5" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="6">
         <v>32000</v>
       </c>
-      <c r="E6" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="6">
         <v>48000</v>
       </c>
-      <c r="E7" s="11">
-        <f>C6*D6</f>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>119000</v>
-      </c>
-      <c r="E8" s="11">
-        <f>C6*D6</f>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>144000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>102000</v>
-      </c>
-      <c r="E9" s="11">
-        <f>C6*D6</f>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>109000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>109000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
-        <v>109000</v>
+      <c r="D10" s="6">
+        <v>95000</v>
       </c>
       <c r="E10" s="6">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
+        <v>95000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11">
-        <v>21000</v>
-      </c>
-      <c r="E11" s="11">
-        <f>C6*D6</f>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>97000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6">
-        <f>C12*D12</f>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>102000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -691,4 +755,283 @@
   <pageSetup orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E092C8-137A-49BF-9EC6-0F8B97F88BF6}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C3*D3</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <f>C4*D4</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="6">
+        <f ref="E5:E15" t="shared" si="0">C5*D5</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>32000</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>48000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>109000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>95000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>97000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>102000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Nắp nhựa uống liền</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8000</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -190,6 +196,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +572,7 @@
         <v>60000</v>
       </c>
       <c r="E5" s="6">
-        <f ref="E5:E15" t="shared" si="0">C5*D5</f>
+        <f ref="E5:E14" t="shared" si="0">C5*D5</f>
         <v>360000</v>
       </c>
     </row>
@@ -736,15 +745,14 @@
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8000</v>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>400000</v>
+        <f>C15*D15</f>
       </c>
     </row>
   </sheetData>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA1BCB-FAD1-40AE-B080-E1D30FA5369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297F6FF-6781-47CD-801B-2A0571FCE73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,11 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Kho Hàng</t>
   </si>
   <si>
+    <t>Mã Ng/Liệu</t>
+  </si>
+  <si>
     <t>Tên hàng</t>
   </si>
   <si>
@@ -57,70 +60,142 @@
     <t>Thành tiền</t>
   </si>
   <si>
+    <t>cp_1</t>
+  </si>
+  <si>
     <t>Cà phê A</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>cp_2</t>
+  </si>
+  <si>
+    <t>Cà phê B</t>
+  </si>
+  <si>
+    <t>sd_1</t>
+  </si>
+  <si>
+    <t>Sữa đặc Ngôi Sao</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>kb_1</t>
+  </si>
+  <si>
+    <t>Kem béo Ice Hot</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>st_1</t>
+  </si>
+  <si>
+    <t>Sữa tươi Vinamilk ko đường</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>cc_1</t>
+  </si>
+  <si>
+    <t>Ca cao Malaysia</t>
+  </si>
+  <si>
+    <t>bịch</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>m_vq_1</t>
+  </si>
+  <si>
+    <t>Mứt việt quất</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>109000</t>
+  </si>
+  <si>
+    <t>m_x_1</t>
+  </si>
+  <si>
+    <t>Mứt xoài</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>m_d_1</t>
+  </si>
+  <si>
+    <t>Mứt dâu</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>m_cl_1</t>
+  </si>
+  <si>
+    <t>Mứt chanh leo</t>
+  </si>
+  <si>
+    <t>97000</t>
+  </si>
+  <si>
+    <t>m_k_1</t>
+  </si>
+  <si>
+    <t>Mứt Kiwi</t>
+  </si>
+  <si>
+    <t>102000</t>
+  </si>
+  <si>
+    <t>ln_1</t>
+  </si>
+  <si>
+    <t>Ly nhựa 360ml</t>
+  </si>
+  <si>
+    <t>lốc</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>nn_1</t>
+  </si>
+  <si>
+    <t>Nắp nhựa uống liền</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>Cà phê B</t>
-  </si>
-  <si>
-    <t>Sữa đặc Ngôi Sao</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>Kem béo Ice Hot</t>
-  </si>
-  <si>
     <t>Sữa tươi Vinamilk không đường</t>
   </si>
   <si>
-    <t>Ca cao Malaysia</t>
-  </si>
-  <si>
-    <t>bịch</t>
-  </si>
-  <si>
-    <t>Mứt việt quất</t>
-  </si>
-  <si>
-    <t>chai</t>
-  </si>
-  <si>
-    <t>Mứt xoài</t>
-  </si>
-  <si>
-    <t>Mứt dâu</t>
-  </si>
-  <si>
-    <t>Mứt chanh leo</t>
-  </si>
-  <si>
-    <t>Mứt Kiwi</t>
-  </si>
-  <si>
-    <t>Ly nhựa 360ml</t>
-  </si>
-  <si>
-    <t>lốc</t>
-  </si>
-  <si>
-    <t>Nắp nhựa uống liền</t>
-  </si>
-  <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
 </sst>
 </file>
@@ -145,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +243,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -194,7 +289,11 @@
     <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -480,33 +579,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="30" customWidth="1" style="2"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1" style="3"/>
-    <col min="3" max="3" bestFit="1" width="8.81640625" customWidth="1" style="4"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1" style="8"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1" style="6"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1" style="2"/>
+    <col min="1" max="1" bestFit="1" width="10.36328125" customWidth="1" style="2"/>
+    <col min="2" max="2" bestFit="1" width="30" customWidth="1" style="2"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1" style="3"/>
+    <col min="4" max="4" bestFit="1" width="8.81640625" customWidth="1" style="4"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1" style="8"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1" style="6"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -515,249 +616,279 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
         <f>C3*D3</f>
-        <v>120000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>C4*D4</f>
-        <v>120000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
-        <v>60000</v>
-      </c>
-      <c r="E5" s="6">
-        <f ref="E5:E14" t="shared" si="0">C5*D5</f>
-        <v>360000</v>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
+        <f>C5*D5</f>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>348000</v>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
+        <f>C6*D6</f>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
-        <v>32000</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>192000</v>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
+        <f>C7*D7</f>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
-        <v>48000</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>144000</v>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6">
+        <f>C8*D8</f>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>109000</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>109000</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <f>C9*D9</f>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>95000</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>95000</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6">
+        <f>C10*D10</f>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>90000</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="6">
+        <f>C11*D11</f>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>97000</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>97000</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6">
+        <f>C12*D12</f>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>102000</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6">
+        <f>C13*D13</f>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
-        <v>40000</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6">
+        <f>C14*D14</f>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="6">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6">
         <f>C15*D15</f>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -767,25 +898,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E092C8-137A-49BF-9EC6-0F8B97F88BF6}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -794,250 +926,292 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
-        <f>C3*D3</f>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3*E3</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6">
-        <f>C4*D4</f>
+      <c r="F4" s="6">
+        <f>D4*E4</f>
         <v>120000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>60000</v>
       </c>
-      <c r="E5" s="6">
-        <f ref="E5:E15" t="shared" si="0">C5*D5</f>
+      <c r="F5" s="6">
+        <f ref="F5:F14" t="shared" si="0">D5*E5</f>
         <v>360000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>29000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>348000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>32000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>192000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>48000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <v>109000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>109000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>95000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>95000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
         <v>90000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>97000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
         <v>102000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>40000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8000</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
         <v>400000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Kho Hàng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297F6FF-6781-47CD-801B-2A0571FCE73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056617C-3F55-481C-9617-9CD29FC7ACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Kho Hàng</t>
   </si>
@@ -63,130 +63,136 @@
     <t>cp_1</t>
   </si>
   <si>
+    <t>Cà phê Robusta</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>cp_2</t>
+  </si>
+  <si>
+    <t>Cà phê B</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>sd_1</t>
+  </si>
+  <si>
+    <t>Sữa đặc Ngôi Sao</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>kb_1</t>
+  </si>
+  <si>
+    <t>Kem béo Ice Hot</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>st_1</t>
+  </si>
+  <si>
+    <t>Sữa tươi Vinamilk ko đường</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>cc_1</t>
+  </si>
+  <si>
+    <t>Ca cao Malaysia</t>
+  </si>
+  <si>
+    <t>bịch</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>m_vq_1</t>
+  </si>
+  <si>
+    <t>Mứt việt quất</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>109000</t>
+  </si>
+  <si>
+    <t>m_x_1</t>
+  </si>
+  <si>
+    <t>Mứt xoài</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>m_d_1</t>
+  </si>
+  <si>
+    <t>Mứt dâu</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>m_cl_1</t>
+  </si>
+  <si>
+    <t>Mứt chanh leo</t>
+  </si>
+  <si>
+    <t>97000</t>
+  </si>
+  <si>
+    <t>m_k_1</t>
+  </si>
+  <si>
+    <t>Mứt Kiwi</t>
+  </si>
+  <si>
+    <t>102000</t>
+  </si>
+  <si>
+    <t>ln_1</t>
+  </si>
+  <si>
+    <t>Ly nhựa 360ml</t>
+  </si>
+  <si>
+    <t>lốc</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>nn_1</t>
+  </si>
+  <si>
+    <t>Nắp nhựa uống liền</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
     <t>Cà phê A</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>cp_2</t>
-  </si>
-  <si>
-    <t>Cà phê B</t>
-  </si>
-  <si>
-    <t>sd_1</t>
-  </si>
-  <si>
-    <t>Sữa đặc Ngôi Sao</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>kb_1</t>
-  </si>
-  <si>
-    <t>Kem béo Ice Hot</t>
-  </si>
-  <si>
-    <t>29000</t>
-  </si>
-  <si>
-    <t>st_1</t>
-  </si>
-  <si>
-    <t>Sữa tươi Vinamilk ko đường</t>
-  </si>
-  <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>cc_1</t>
-  </si>
-  <si>
-    <t>Ca cao Malaysia</t>
-  </si>
-  <si>
-    <t>bịch</t>
-  </si>
-  <si>
-    <t>48000</t>
-  </si>
-  <si>
-    <t>m_vq_1</t>
-  </si>
-  <si>
-    <t>Mứt việt quất</t>
-  </si>
-  <si>
-    <t>chai</t>
-  </si>
-  <si>
-    <t>109000</t>
-  </si>
-  <si>
-    <t>m_x_1</t>
-  </si>
-  <si>
-    <t>Mứt xoài</t>
-  </si>
-  <si>
-    <t>95000</t>
-  </si>
-  <si>
-    <t>m_d_1</t>
-  </si>
-  <si>
-    <t>Mứt dâu</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>m_cl_1</t>
-  </si>
-  <si>
-    <t>Mứt chanh leo</t>
-  </si>
-  <si>
-    <t>97000</t>
-  </si>
-  <si>
-    <t>m_k_1</t>
-  </si>
-  <si>
-    <t>Mứt Kiwi</t>
-  </si>
-  <si>
-    <t>102000</t>
-  </si>
-  <si>
-    <t>ln_1</t>
-  </si>
-  <si>
-    <t>Ly nhựa 360ml</t>
-  </si>
-  <si>
-    <t>lốc</t>
-  </si>
-  <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>nn_1</t>
-  </si>
-  <si>
-    <t>Nắp nhựa uống liền</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
   <si>
     <t>1</t>
@@ -267,8 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="12">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -582,307 +587,307 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.36328125" customWidth="1" style="2"/>
-    <col min="2" max="2" bestFit="1" width="30" customWidth="1" style="2"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1" style="3"/>
-    <col min="4" max="4" bestFit="1" width="8.81640625" customWidth="1" style="4"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1" style="8"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" style="6"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1" style="2"/>
+    <col min="1" max="1" bestFit="1" width="10.42578125" customWidth="1" style="1"/>
+    <col min="2" max="2" bestFit="1" width="30" customWidth="1" style="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" style="2"/>
+    <col min="4" max="4" bestFit="1" width="8.85546875" customWidth="1" style="3"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" style="7"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1" style="5"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>C3*D3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
         <f>C4*D4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <f>C5*D5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
-        <f>C5*D5</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
         <f>C6*D6</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5">
         <f>C7*D7</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
         <f>C8*D8</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5">
+        <f>C9*D9</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5">
+        <f>C10*D10</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6">
-        <f>C9*D9</f>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5">
+        <f>C11*D11</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="6">
-        <f>C10*D10</f>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C12*D12</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6">
-        <f>C11*D11</f>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6">
-        <f>C12*D12</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5">
         <f>C13*D13</f>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3">
         <v>50</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14*D14</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6">
-        <f>C14*D14</f>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
         <f>C15*D15</f>
       </c>
     </row>
@@ -904,307 +909,307 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
         <f>D3*E3</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
         <f>D4*E4</f>
         <v>120000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>60000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f ref="F5:F14" t="shared" si="0">D5*E5</f>
         <v>360000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>29000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>348000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>32000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>192000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>48000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>144000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>109000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>109000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>95000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>95000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>90000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>97000</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>102000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3">
         <v>50</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>40000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="6">
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
         <f>D15*E15</f>
         <v>400000</v>
       </c>
